--- a/doc/00公共/报销记录.xlsx
+++ b/doc/00公共/报销记录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>项目</t>
   </si>
@@ -66,6 +66,13 @@
   </si>
   <si>
     <t>wa服务器两台</t>
+  </si>
+  <si>
+    <t>时间</t>
+    <rPh sb="0" eb="1">
+      <t>sh jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -426,128 +433,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>70.7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>202.5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>158</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>183.6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>60</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>300</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>256</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>900</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>30.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>513</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/doc/00公共/报销记录.xlsx
+++ b/doc/00公共/报销记录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>项目</t>
   </si>
@@ -71,6 +71,16 @@
     <t>时间</t>
     <rPh sb="0" eb="1">
       <t>sh jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信接口</t>
+    <rPh sb="0" eb="1">
+      <t>duan xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie kou</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -122,7 +132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,6 +141,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -570,6 +583,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42592</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
